--- a/500all/speech_level/speeches_CHRG-114hhrg97211.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Rokita. A quorum being present, the Subcommittee on Early Childhood, Elementary, and Secondary Education will come to order.    Good morning, everyone, and welcome to today's hearing on career and technical education. I would like to thank our witnesses for joining us as we explore opportunities to better serve America's workforce.    Young adults are entering a job market today that is vastly different than the one that existed just a generation ago. Technological advances and the growth of a global economy have significantly changed the kinds of jobs available and the skills required to do them, making quality education and training vital ingredients to success in today's workplaces.    This new reality has been painfully evident in the wake of the recent recession. We are more than 6 years into the so-called recovery, yet millions of Americans continue to struggle with finding a good-paying job. Meanwhile, industries critical to our economy--health care, engineering, and manufacturing, for example--have jobs to fill and not enough qualified applicants to take them, a problem we have come to know as the skills gap.    Recognizing the urgent need to close the gap and put Americans back to work, Republicans and Democrats came together last Congress to fix a broken and outdated job training system. The bipartisan, bicameral effort resulted in what we call the Workforce Innovation and Opportunity Act, a commonsense solution to modernize and improve the Federal workforce development system. The Workforce Innovation and Opportunity Act will help workers obtain skills for 21st century jobs and cultivate a modern workforce that evolving American businesses truly need.    But we still have more work to do. By reauthorizing the Carl D. Perkins Career and Technical Education Act, we have an opportunity to help even more Americans, especially younger Americans, to enter the workforce with the tools and knowledge necessary to compete in the high-skilled, in-demand jobs of our economy--in short, to compete in a 21st century world and win. Last reauthorized in 2006, the law provides Federal support for State and local programs focused on preparing high school and community college students for technical careers.    Now, unfortunately, many of these career and technical education programs have not kept pace with the changing workforce. In a report released by the Counsel for Chief State School Officers, education leaders explained that, quote, ``Career education in too many of our secondary schools reflects an outdated model that tolerates low expectations and is often misaligned with the evolving needs of the current labor market.''    With more than 14 percent of young adults unemployed and the highest level of unfilled jobs since 2001, it's no wonder States have started to take action. My home State of Indiana, for example, is partnering with local businesses to develop a new high school curriculum that better meets the needs of local communities and ensures that students are prepared to enter high-skilled jobs right after earning their diploma.    As Governor Mike Pence testified at a hearing here earlier this year, quote, ``For those students who are not bound for the traditional 4-year college, we must still ensure that they can thrive in future careers. And one way to do this is to again make career and technical education a priority,'' unquote.    By working with the private sector to develop resources for successful career and technical education programs, Indiana has made incredible gains over the last 2 years. The State has helped thousands of hard-working Hoosiers join the workforce and attracted more good-paying jobs for people in our communities. It's our hope that the success we've experienced in Indiana not only continues for our State, but is replicated across the country.    The goal at the Federal level and what we are here to discuss today is how to ensure investment in these State and local efforts is paying off for students that we all aim to serve. To help reach that goal, we should consider reforms that encourage States to align high school and postsecondary course work with the needs of the workforce. This will require a look at existing Federal requirements, many of which, in my opinion, are duplicative and can hinder State and local efforts to development and implement their own successful programs.    Helping Americans compete and succeed in today's workforce remains one of the committee's leading priorities, and today's discussion is an important part of that effort. I look forward to hearing from our panel of witnesses as we work to improve the Perkins Act and strengthen support for young Americans as they enter the workforce.    And before I recognize my friend Ranking Member Fudge, I would like to note that one of our witnesses today, Dr. Douglas Major, is a resident of Stillwater, Oklahoma. On Saturday, the people of Stillwater and the surrounding communities were celebrating Oklahoma State University's homecoming when a driver crashed into the homecoming parade. This terrible tragedy injured more than 40 individuals and killed four others.    Dr. Major, or behalf of this committee, I want to extend my deepest sympathies to you, the people of Stillwater, and the entire Oklahoma State University community. We pray for the recovery of those who remain hospitalized and in critical condition, and we lift up our thoughts and prayers to the victims and their families.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Major</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Major. Yes, sir. Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman.    Thank you all for being here today.    Today we are going to examine the critical role of career and technical education programs that prepare our Nation's students for success in college and career. Many of these programs are funded through the Carl D. Perkins Career and Technical Education Improvement Act of 2006.    According to the Georgetown University Center on Education and the Workforce, in the next 5 years 65 percent of all jobs in the United States will require training beyond high school. In my home State of Ohio career and technical education is available at every public high school. Other States should follow Ohio's lead so career and technical education is available at every high school across this Nation.    The importance of CTE cannot be overstated. Its programs equip our Nation's students with the skills they need to succeed and in a rapidly evolving 21st century economy.    Unfortunately, after harmful sequestration cuts, public funding for CTE is at historic lows. It is clear that we should not continue to cut funding for critical programs like CTE that engage students with an integrated curriculum of core academic content and real world, work-based relevance. Instead, we must support high-quality CTE programs.    Currently, our Nation faces an unprecedented skills gap, and CTE programs are integral to closing that gap. We must do everything we can to maintain and strengthen these programs.    For many years, the Perkins Act has supported the development of CTE programs that cultivate in-demand skills among secondary and postsecondary students. We must do more to spur innovation with the delivery of CTE to reward and replicate programs achieving positive outcomes for students and industry and to ensure CTE is positioned to drive economic success through better workforce alignment and increased collaboration.    Reauthorization of the Carl D. Perkins Career and Technical Education Act presents this committee with an opportunity to ensure that all students are equipped with the skills to succeed in a rapidly evolving 21st century economy.    I look forward to hearing from our distinguished panel of witnesses and working with the majority to reauthorize the act. Further, I have received, Mr. Chairman, a letter from our colleague, Mr. Langevin, and he would like to enter it into the record.</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t xml:space="preserve">    Chairman Rokita. Let the record reflect that the witnesses have answered all in the affirmative.    And you may be seated.    Before I recognize you to provide your testimony, let me briefly explain our lighting system. You each have 5 minutes to present your testimony. And just like the traffic lights, when 1 minute is left the light will turn yellow. I'm not sure a traffic light stays yellow for a minute, but you get the point.    I can say something about my spouse and traffic.    When your time has expired, the light will turn red. At that point, I'll ask you to wrap up your remarks as best you are able. Members will each have 5 minutes to ask questions of you then.    So we'll start with Dr. Huftalin. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Huftalin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Huftalin. Good morning, Chairman Rokita, Ranking Member Fudge, and members of the committee. Thank you for the opportunity to appear today to discuss this important issue. My name is Deneece Huftalin, and I serve as the president of Salt Lake Community College, having served at the college in various leadership capacities for over 23 years.    Salt Lake Community College, as you heard, is an accredited, student-focused, comprehensive community college meeting the diversities of the Salt Lake Valley. Home to more than 60,000 students each year, Salt Lake Community College is the largest supplier of transfer students to Utah's 4-year institutions and a perennial top 10 college nationally for total associate's degrees awarded.    Twenty percent of our students identify as minority, 10 percent identify as having some disability, and last fall 64 percent of our incoming students were first generation. We are also proud to serve 642 veteran students and have consistently been named as a top college for veterans by Military Times.    The college is also Utah's leading provider of workforce development programs, with more than 28,000 students enrolled in CTE courses last year. With 211 certificate and degree programs, SLCC offers a breadth of workforce training opportunities for Salt Lake County residents.    Career and technical education programs are designed to prepare students to enter the workforce immediately upon completion. Students can enter our college in noncredit or credit-bearing CTE programs and can earn short-term certificates as well as associate degrees. Our CTE programs range from traditional vocational programs, like welding and building construction, to newer programs, such as biomanufacturing and digital animation.    The Carl D. Perkins Act is a vital source of financial support for Salt Lake Community College and for all community colleges. Over the last several years, as the recession weakened State investment toward higher education, Perkins funding was crucial to our ability to maintain and grow key CTE programs for our students at a time when our enrollment was rapidly increasing.    For the 2016 fiscal year, Salt Lake Community College received approximately $1.25 million in Perkins funds. The college uses those funds to improve CTE offerings throughout the institution.    Acquiring modern equipment is imperative for state-of-the-art CTE programs. These programs are costly to maintain and often require significant financial investment to ensure we have the latest technologies and equipment to train our students to enter today's ever-advancing and technical workplace.    The college has used Perkins funds to purchase a wide range of items, such as dental hygiene x-ray view boxes, materials fatigue testers, and CNC machining equipment, all items we would be unable to purchase without the Perkins funding. In addition, Perkins funding has allowed us to ramp up our training in aviation maintenance avionics to meet industry demand and to maintain high-quality training in automotive diesel training and building construction, all critical industries which contribute to a healthy economy.    While Perkins funding primarily supports advanced equipment needs, Perkins dollars also strengthen the essential student support services many of our students need to be successful. As we strive to increase our completion rates, Perkins funding is essential to enhance advising and disability resource center services.    As I close my remarks, I'd like to share two brief examples of how we are using Perkins funding to meet the needs of both our employers and our students.    A few months ago, the Boeing Company of Salt Lake, on behalf of several major aerospace manufacturing companies, approached the State and its educational partners about working collectively to provide more trained workers for the State's rapidly growing aerospace industry. Within a short timeframe, we created the Utah Aerospace Pathways Program. Under this pilot program, high school students enroll in a specialized set of courses in aerospace manufacturing.    The students take one semester in high school, followed by a second semester at Salt Lake Community College or the Davis Applied Technology College. They then participate in a 48-hour paid internship with local aerospace partners, and upon successful completion of their coursework and internship will graduate with a certificate in aerospace manufacturing. The certificate allows students to begin a career immediately in the aerospace industry at a livable wage.    The training provided through this program will center on machining, fabrication, and composite skills, all CTE fields that are increasingly in demand in aerospace and other advanced manufacturing industries. We are proud to be part of this collaborative effort which demonstrates best practices in CTE using local industry data to establish relevant, strong career programs between secondary, higher, and industry leaders.    My second example of CTE at work relates to one of our recent graduates. As a single mother of two and a 14-year veteran of the United States Army, Darlene needed a career change. Working as a concrete contractor, she knew it would be a matter of time until the physical strain took its toll.    Darlene enrolled in our Non-Destructive Testing program with hopes of coupling her critical thinking and analytical skills with her strong work ethic. Darlene completed in 2 years and received multiple employment offers promising exceptional benefits.    Career and technical education has always been and will be the very core of our mission at Salt Lake Community College. The Perkins program is critical to our ability to provide these in-demand programs for industry and for thousands of students like Darlene.    We appreciate your past support of the Perkins program and encourage your current support as this worthwhile program is considered for reauthorization. I would be happy to address any questions from the committee.</t>
   </si>
   <si>
@@ -109,27 +97,18 @@
     <t xml:space="preserve">    Chairman Rokita. Thank you, Doctor.    Dr. Ricks, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ricks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ricks. Good morning, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee. Thank you for the opportunity to submit testimony to the Committee on Education and the Workforce and to share my perspective on improving career and technical education to help students succeed in the workforce. Specifically, I will discuss the role of the importance of technical education in the development of career pathways in nontraditional fields for underrepresented groups.    For more than 25 years I have served as an educator, advocate, and social science researcher. I currently serve as the director of Diversity in Life Sciences for Keystone Symposia on Molecular and Cellular Biology in Silverthorne, Colorado. My responsibility is to manage programs to serve underrepresented, or what we call UR students, postdoctoral Fellows, and early career scientists, including our flagship Fellows programs for UR assistant professors and research scientists. Many of the UR researchers who participate in our meetings and professional development programs come from public and private universities in States represented by members of this committee, including but not limited to institutions such as Emory, Stanford, the University of Pennsylvania, the University of Virginia, the University of Wisconsin, Madison, and Michigan State University.    I am also a member of the Board of Directors of the Augustus F. Hawkins Foundation, a public education and workforce foundation founded by and subsequently named after the former chairman of this distinguished committee.    In the past, career and technical education, or CTE, was associated with vocational education as a training platform for low-income and immigrant populations who had little access to more highly paid jobs that require formal postsecondary education. And in the past, CTE teachers were fairly low-salary workers. But according to 2012 Bureau of Labor Statistics, the median salary for CTE teachers was $51,910, placing those teachers squarely into the American middle class.    A 2014 U.S. Census report cited statistics that non-Hispanic Asians were most likely to hold a bachelor's degree or higher, followed by non-Hispanic whites. While 31 percent of Asians hold a bachelor's degree as their highest level of attainment and 18 percent hold an advanced degree, 20 percent of non-Hispanic whites hold a bachelor's degree and 12 percent an advanced degree.    However, Blacks and Hispanics of any race were most concentrated at lower levels of educational attainment. Only 39 percent of Blacks and Hispanics reported high school completion as their highest level of traditional educational attainment, and 13 percent of blacks and 28 percent of Hispanics or Latinos did not complete high school at all.    When you total this, nearly 41 percent of minorities, African Americans and Latinos, don't complete high school. These are shocking numbers for any Nation, but for the most industrialized Nation in the world, an inability to ensure secondary educational completion signals a critical failure in the system. If students are unable to master basic skill sets--that's reading, writing, computation, and critical thinking--it is far more difficult for them to secure and sustain gainful employment.    However, one of the advantages of CTE is its emphasis on technical training and soft skills development, such as interviewing techniques, job persistence, and interpersonal communication. Short-term education is a possible way to lift groups, including Latinos and African Americans with low levels of educational attainment, into better economic standing. Recent economic challenges have pushed many Americans towards short-term education options and this short-term education may pay off. CTE programs and the credentials that they offer provide access to higher wages, higher-demand jobs, particularly in emerging industry sectors. Almost 30 percent of people with less than an associate's degree, including licenses and certificates, earn more than many of the average bachelor degree recipients.    It is a fact that many Americans do not attend college. However, as a birthright, every American expects to have a job that allows them to feed their families, have access to affordable health care, and live with dignity. Fortunately, although CTE was once stigmatized and relegated to the dungeons of education, it is now considered as a viable opportunity for both nontraditional and college-bound students. In fact, just this year, the United States Presidential Scholars Program established a new category of outstanding scholars in CTE.    The resurgence of apprenticeship programs is a welcome addition to the CTE portfolio, and I am pleased that legislation such as the Apprenticeship and Jobs Training Act of 2015 are gaining currency. I thank the members of the committee for the opportunity to share a realistic perspective of how CTE can serve as a transformative toolkit for the education and workforce development of U.S. current and future labor markets. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Doctor.    Mr. Johnson, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Good morning, Mr. Chairman, Ranking Member Fudge, members of the subcommittee. My name is Tim Johnson, and I serve as senior director of governmental relations for the NCCER. Thank you for letting us participate in this hearing this morning.    NCCER is a not-for-profit 501(c)(3) educational foundation created in 1996 as the National Center for Construction Education and Research. It was developed with the support of more than 125 construction CEOs and various associations, including the Associated Builders &amp; Contractors and the Associated General Contractors, and academic leaders, who united to revolutionize training for the construction industry.    Sharing the common goal of developing a safe and productive workforce, these companies and their organizations created a standardized training and credentialing program for the commercial and industrial construction industries. This progressive program has evolved into curriculum in more than 70 craft areas and a complete series of more than 70 assessments offered by 700 NCCER accredited sponsors in more than 5,000 training locations across the United States. The NCCER programs and processes annually engage more than a half a million--500,000--individuals.    Our Board of Trustees is a who's who of industry: ExxonMobile, Shell, DuPont, Bechtel, Fluor, Jacobs, Turner Industries, Performance Contractors, ISC Constructors. We also have board members from organizations--great organizations--like Skills USA and the Association for Career and Technical Education.    NCCER develops standardized construction and maintenance curricula and assessments with portable credentials. These credentials are tracked through our registry and allow organizations and companies to confirm the qualifications of their craft professionals and/or check the qualifications of possible new hires. NCCER's registry also assists craft professionals by maintaining their records in a secure database.    Our workforce development process of accreditation, instructor certification, standardized curriculum, registry, and assessment certification is a key component in the construction industry's workforce development efforts. NCCER also drives multiple initiatives to enhance career development and recruitment efforts for the industry, primarily through our Build Your Future campaign.    NCCER is headquartered in Alachua, Florida, and is affiliated with the University of Florida's M.E. Rinker School of Construction Management. And I will tell you, as a proud LSU Tiger, that's sometimes difficult for me to say.    The NCCER is a believer in and supporter of career and technical education. We believe that CTE is being transformed across the United States and great pockets of excellence have been created. Our challenge is to take these pockets of excellence and turn them into standard practices based on regional and specific needs.    We must place additional focus on what I call the Four P's of CTE: Public policy and public perception. The focus of my remarks today will be the critically important link between industry-specific needs and the education and training that CTE programs provide.    All of the NCCER programs and processes are driven directly by our industry partners. Our 70-plus craft curriculum titles are developed and regularly updated by construction industry subject matter experts. For example, our process identifies and brings together some of the premier electricians in the United States to originally develop and constantly update our electrical programs. We must ensure that what is being taught includes the very latest technology and practices in all of our programs. The NCCER does just that.    We are working in other ways to more closely link industry and education. We have developed the Construction Career Pathways initiative to provide guidance, best practices, and practical tools that can be used by industry and education to connect. This initiative has created an online connection map that allows industry representatives and educators to connect locally. By providing a fillable form to list contact information and needs, local teachers can find contractors in their area that are willing to help with their programs through presentations, curriculum guidance, and/or career events.    We also know that successful CTE programs must identify and employ skilled and capable instructors. I had the great pleasure of managing a large, privately funded craft training program for a number of years and I learned very quickly that instructors are the lifeblood of any training program. I say often that it is easier to turn a pipe fitter into a teacher than it is to turn a teacher into a pipe fitter. That means no disrespect for professional educators. I come from a family of them.    The key to CTE is to find skilled professionals who have some communication skills and provide them with the instructional training and resources they need. The NCCER does this through our Instructor Certification Training Program and our Master Training Program, and these programs ensure that individuals who instruct in our accredited programs have the craft and teaching skills to bring learning to life for their students.    In my home State of Louisiana, where more than $80 billion of industrial development expansion has been announced, the NCCER is helping to drive great collaboration between industry, the contractors who build and maintain their facilities, educational providers, State government agencies. The Louisiana Department of Education, K through 12, and the Louisiana Community and Technical College System are both accredited by the NCCER to provide our programs and processes.    The NCCER has developed into one of the premier workforce development organizations in the United States, and that success can be directly linked to the fact that we are and have been from our inception specifically driven by industry needs.    We look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Mr. Johnson. I appreciate that.    Let me start the subcommittee's questioning session by recognizing the chairman of the full Committee of Education and the Workforce, the gentleman from Minnesota, Mr. John Kline.</t>
   </si>
   <si>
-    <t>Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Mr. Chairman, for the courtesy and for the hearing.    I thank the panel of witnesses. You're a terrific, terrific panel of witnesses.    We have been grappling with how do we organize Federal efforts and how do we spend Federal money to good end, and what we've heard for a long time was that industry just couldn't find people with the skills that they needed, they just couldn't find them, and schools were providing skills that weren't needed. And so we went through quite a process here of looking at WIA, the Workforce Act, and we came up with WIOA. I don't know how we actually came up with that name, but we've got a new system.    So, again, all of this was designed, if we're going to put taxpayer money into this, and if we're going to do something to help people who need jobs and to help industries who need workers, it ought to work, it ought to come together and not be working across purposes.    So, Dr. Huftalin, you talked about partnering with local employers, and I think we're seeing evidence of that around the country. What kind of relationship do you have with these workforce development boards? Do you have partners there? Are you part of it? How is that working under the new rules?</t>
   </si>
   <si>
@@ -160,9 +139,6 @@
     <t xml:space="preserve">    Chairman Rokita. I thank the gentleman.    Ranking Member Scott, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. I appreciate the opportunity.    And I want to thank our witnesses.    I want to follow up with one of the questions the chairman mentioned. Ms. Huftalin, in working with the various agencies, how do you make sure that you're training the right number of people, not too many and not too few?</t>
   </si>
   <si>
@@ -193,9 +169,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Chairman, thank you. Thank you for this hearing. Career and technical education is obviously something I'm very passionate about, and I happen to believe that of the domestic issues that this Nation is facing economically, a robust investment in career and technical education training is a solution to many of those problems.    Thanks to the members of the panel for your experience, your passion, and your leadership. On behalf of the Career and Technical Education Caucus, which I co-chair with my good friend, Jim Langevin, who submitted something for the record already, despite some difficult economic times around here, we've actually--and I think it is an acknowledgement of the importance of career and technical education--we've actually gotten a plus-up. You know, not much, $52 million, it's kind of minimal in the scale of a $1.3 billion program, but any kind of a plus-up is a sign of recognition of importance, I think.    Dr. Major, we all know it's important to ensure that parents and students are receiving the necessary information about the vast opportunities that career and technical education can provide. In your testimony, your written and your verbal testimony, you talked about more flexibility, the use of Perkins money earlier in education to pursue career exploration. Can you put a little more meat on the bone of that, just a couple of examples of what and when do you think would be effective?</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    And thank all of you for being here. This is very informative, and I appreciate it very much.    Dr. Huftalin, there's a technical college in my district, Coastal Pines Technical College. It operates a program that's called Move on When Ready. It allows students, high school students, to actually take classes at the technical college to get credit for the classes for a college degree as well as for their high school degree. It comes at no cost, not even the books are charged for. And it's very well attended, very well participated in. Is this the type of program that you see implemented anywhere else?</t>
   </si>
   <si>
@@ -313,9 +283,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    And thank you to the witness. This is such an important conversation. As, we know that the CTE courses can help prepare students to succeed in careers, but also on college campuses, as we've discussed, and help them be prepared.    But that isn't all. The students also learn the soft skills as well as the hard skills, and I know Dr. Ricks mentioned this, like teamwork and the ability to communicate. And that serves them throughout their lives, regardless of where they end up in a career.    The good-quality CTE classes accomplish this while also preparing students to do well academically in postsecondary education as well as the workforce. And I really want to emphasize, because we've been talking a lot about how we message this and what's happened in our conversations, the ``E'' part of CTE stands for education. So we're not trying to convert education into job training. This is about educating students to be prepared for whichever path that they take.    And I want to mention, we're talking about success stories, I have several from the district I represent. Sherwood High School in Sherwood, Oregon, they have an all-girls welding class, fills up every year. They also have a program where the students build a house. They take architecture classes, interior design, environmental science and construction, and then they build and sell the house. It's a great experience. And they have a mobile fab lab where the teacher has an RV and he drives around, not just to other schools, but to other districts to help inform their teachers about what they can do.    But the tremendous benefit, and I've seen and talked with the students who participate in these classes, that they get inherent benefit from making something tangible. And those lessons are really important. Newberg High School in my district has a whole range, from culinary classes to CAD labs. And when I was out there, they really emphasized the importance of the Perkins funding. Yamhill Carlton High School, which is down in wine country, not only do they have a manufacturing class with a local polymer manufacturer, they have also started a viticulture class at their high school.    And then there are courses that continue at the community college. Portland Community College has one of the Nation's top job training programs as recognized by the White House, where they use an innovative approach to help unemployed workers complete short-term stackable credits that give them skills.    So those are just a few of the examples.    And Dr. Ricks, I mentioned the all-girls welding class at Sherwood High School and their homebuilding class. Now, that district has about 5,000 students. This beautiful pen you might have noticed because we're in a small room today, that wood pen was made by a student at Gaston. They have 564 students total in their entire school district. When their teacher gave me this pen, he talked about what this means to the students to actually make things and how engaged they are. Warrenton High School, over on the Oregon coast, has only 285 students, but they run a fish hatchery at their school and have an aquaculture program.    So, Dr. Ricks, how do you bring high quality academic programs, especially to rural and underrepresented communities? And I share your concern about--and Dr. Major and all of you on the panel--about what a shift to competitive funding would mean. But how do you really bring those programs around the country to rural and underrepresented students as well as in large urban districts?</t>
   </si>
   <si>
@@ -343,9 +310,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Okay. First of all, I'd like to make a comment. I can tell you, I'm 60 years old, I think in my lifetime I have never felt that people look down on, or I think Congressman Scott used the word as tech schools as being a dumping ground. There may be some segments of society where they are bigoted or, you know, snobbish people look down on people who didn't go to a 4-year degree. I think among me and my peer group, when I was coming up we never had that idea. And I think it is unfortunate that we had people here today use those terms.    But a question for I guess any one of the four of you. One thing that I find in my area is that sometimes when I talk to people who run the local tech schools they talk about people with literally a college degree going back. I know Dr. Major talked about people being an average age 27. I'd like to you to comment as how often you do see people who have a full 4-year degree and eventually realize that they got something without a great deal of value and come back.</t>
   </si>
   <si>
@@ -382,9 +346,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    I want to talk about this idea of the people coming back at age 27. I just spoke to someone today who grew up in a household with a mother, a single-parent household. The mother was on food stamps. He worked as a box boy full time. Could have qualified for the Pell Grant, all these things early on, but worked his way up to management in this food supermarket area. Hard-working person, working full time, had a kid. Decided that he couldn't stay up all night dispatching the trucks in the morning, sleeping all day, and being a good dad. So he wanted to back and get his education. So he never used the Pell Grants, worked his way up. You know, did all the things. I mean, he was impelled.    I'm wondering how many of those kind of folks do we have coming--you know, they don't even have their first bachelor's, but they're going to come back and try to earn their first degree. But for him to leave the workforce, really, we know that going to school full time is probably a good idea for many people in order to complete their programs.    I mean, how big a segment of the society is this, and do we need to do something about it?</t>
   </si>
   <si>
@@ -421,9 +382,6 @@
     <t>412605</t>
   </si>
   <si>
-    <t>Dave Brat</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, Chairman.    Thank you all for what you do. I just met with all my career and technical folks a couple weeks back. I've been working in this Virginia State Senate with some of the leaders there for 7 or 8 years. I was a college professor for 20 years. Went to seminary before that. I don't know what went wrong. So I've been in education my whole life.    Congresswoman Bonamici says, ``I know what you're going to ask every time,'' because I ask the same question every time one way or the other. But my challenge to you, you're all doing the Lord's work, et cetera, but there's a problem in K to 12, and people have been asking, the parents, and there's all this inside baseball up here, all these terms, and, you know, like we're going to fix this through policy. And so we're spending $13,000 a year per kid for 13 years and they don't know what business is when they get out. It's unbelievable.    So you guys are saying let's find some skills for them. Well, I don't blame you, right? So if you're coming out and you don't know what a business is and you don't know about free markets and economics or any of that, then you're doing the next best step. Let's get these kids some skills and fit them into empty sectors where there's some jobs, right? So I get that.    I'll just go through all for you real quick. Just how can we start to teach kids about free markets and get them excited about business? They're going to spend every waking hour of their life in business. And yet sometimes we tell them business is bad, right? So the rest of your life, all your waking hours, is going to be spent doing something morally bad, right? It's no wonder the kids look at you and go, ``I don't get it.''    My Governor in Virginia is on the other side of the aisle. He's going around the world doing great stuff. He's getting jobs from China and India and all this kind of stuff. And yet we don't work together to convey that energy to the kids. This is the way it works up here in the big leagues, right? All the business people know what you have got to do to make money and be successful. But we don't give those secrets to the kids.    And I'll just put on my econ hat, did economics for years. The industrial revolution skills, they've been with us forever. They didn't cause modern economic growth, I want to be clear on that. And you can go look at a bipartisan author, favorite of mine, Deirdre McCloskey. She's got a six-volume set out, she's a Nobel-caliber economist, and I'd recommend that to all of you, on why markets matter more than all these other subsets, right, education, skills. We have to do all of the above, but if you don't have working markets for kids to plug those skills in, if you go to a top-down communist society, you got skills, you're not going to get growth and kids won't end up rich.    What can we do to pump up and motivate the K to 12 system so that the kids are more prepared for the skills when they get to you? And I'm not leaving you enough, but if you can just all weigh in as you see fit.</t>
   </si>
   <si>
@@ -451,9 +409,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman.    And thank you to all the panelists who are with us today for this really interesting and important discussion.    I had a question maybe for you, Mr. Johnson. You were talking about students coming back who maybe had the BA and you're quickly allowing them to get that associate's degree. How do you find the balance between helping business fill that short-term talent pipeline and the longer best educational goals for our students, maybe sort of the reverse of what you were describing? How do we find that balance?</t>
   </si>
   <si>
@@ -478,9 +433,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair.    And thank you to those of you who are here today to testify. Very interesting.    I'm from the great State of Michigan where we are known for our skilled workers. And over the years we've kind of moved away from that in Michigan and we're trying to do whatever we can to ramp up our vocational environments again.    And I'm wondering, I was just noticing, Dr. Huftalin, the Utah Aerospace Pathways Program is a fascinating example of partnership between local educators and industries. And I'm wondering if you can share with us how that internship program enhances the students' experience.    And also in that same regard, what advice can you give to other learning environments, vocational learning environments, to continue updating their processes and continuing to align with changing needs to ensure they are properly preparing their students for the jobs that are available today?    I ask that question because as I work my way through my district, I note that there is an emphasis on vocational training, but I'm not sure that it's just there to say it's there rather than being dynamic and moving with the economy. We have 96,000 unfilled jobs in Michigan, manufacturing jobs primarily, and it's very important for Michigan, and we're really trying to get this right.</t>
   </si>
   <si>
@@ -500,9 +452,6 @@
   </si>
   <si>
     <t>400097</t>
-  </si>
-  <si>
-    <t>Susan A. Davis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you. Thank you, Mr. Chairman.    Appreciate you all being here.    One of things that you talked about just a few minutes ago was sort of that back and forth with industry and the ability of instructors, teachers to really get a sense of what's going on in the real world and be able to translate that for their students.    I wanted to ask you, though, about the curriculum for CTE teachers themselves. You were just talking a little about that. You have to know your--if you're teaching a craft, you sure as heck want to know how to do that. But are there some other attributes and ways of training for--I think, Dr. Johnson, you talked about citizenship ready skills.    What is it that perhaps within this range of classes is really required of the instructors themselves, the kind of role model that those individuals are? What have you seen that perhaps is different, you know, from an English teacher, from a history teacher?</t>
@@ -1003,11 +952,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1027,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1055,11 +1000,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1079,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1107,11 +1048,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1131,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1159,11 +1096,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1185,11 +1120,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1211,11 +1144,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1235,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1263,11 +1192,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1287,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1315,11 +1240,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1339,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1367,11 +1288,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1391,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1419,11 +1336,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1443,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1469,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1495,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1521,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1547,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1573,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1599,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>37</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1625,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1651,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1679,11 +1576,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1703,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1729,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1755,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1781,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1807,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1833,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1859,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1885,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1913,11 +1792,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1937,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1963,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1989,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2015,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2041,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2067,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2093,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2119,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2147,11 +2008,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2171,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2199,11 +2056,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2223,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2249,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2275,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2301,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2327,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2353,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2379,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2405,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2431,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2459,11 +2296,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2483,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2509,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2535,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2561,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2587,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2613,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2639,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2665,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2691,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>81</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2717,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2743,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2769,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2795,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2821,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2849,11 +2656,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2873,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2899,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2925,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2951,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2977,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3003,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3029,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3057,11 +2848,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3081,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
-      </c>
-      <c r="G82" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3107,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3133,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3159,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3185,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
-      </c>
-      <c r="G86" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3211,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3237,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
-      </c>
-      <c r="G88" t="s">
-        <v>109</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3263,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3291,11 +3064,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3315,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3343,11 +3112,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3367,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3393,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3419,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G95" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3445,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3471,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G97" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3497,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3523,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>121</v>
-      </c>
-      <c r="G99" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3549,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3575,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3601,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3629,11 +3376,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3653,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3679,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3705,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3731,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3757,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3783,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3809,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3837,11 +3568,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3861,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>144</v>
-      </c>
-      <c r="G112" t="s">
-        <v>145</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3887,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3913,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
-      </c>
-      <c r="G114" t="s">
-        <v>145</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3939,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3965,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
-      </c>
-      <c r="G116" t="s">
-        <v>145</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3991,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4019,11 +3736,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4043,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4069,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4095,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
-      </c>
-      <c r="G121" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4121,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4147,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
-      </c>
-      <c r="G123" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4175,11 +3880,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4199,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>161</v>
-      </c>
-      <c r="G125" t="s">
-        <v>162</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4225,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4251,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4277,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>161</v>
-      </c>
-      <c r="G128" t="s">
-        <v>162</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4303,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4329,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>161</v>
-      </c>
-      <c r="G130" t="s">
-        <v>162</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4355,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4383,11 +4072,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4407,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4435,11 +4120,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4459,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4487,11 +4168,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4511,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4539,11 +4216,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4563,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4591,11 +4264,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4615,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4643,11 +4312,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4667,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4695,11 +4360,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4719,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4747,11 +4408,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4771,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4799,11 +4456,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4825,11 +4480,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4849,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4877,11 +4528,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4901,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>58</v>
-      </c>
-      <c r="G152" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4927,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4953,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>58</v>
-      </c>
-      <c r="G154" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4979,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5005,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
-      </c>
-      <c r="G156" t="s">
-        <v>59</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5033,11 +4672,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5057,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5085,11 +4720,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97211.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Rokita. A quorum being present, the Subcommittee on Early Childhood, Elementary, and Secondary Education will come to order.    Good morning, everyone, and welcome to today's hearing on career and technical education. I would like to thank our witnesses for joining us as we explore opportunities to better serve America's workforce.    Young adults are entering a job market today that is vastly different than the one that existed just a generation ago. Technological advances and the growth of a global economy have significantly changed the kinds of jobs available and the skills required to do them, making quality education and training vital ingredients to success in today's workplaces.    This new reality has been painfully evident in the wake of the recent recession. We are more than 6 years into the so-called recovery, yet millions of Americans continue to struggle with finding a good-paying job. Meanwhile, industries critical to our economy--health care, engineering, and manufacturing, for example--have jobs to fill and not enough qualified applicants to take them, a problem we have come to know as the skills gap.    Recognizing the urgent need to close the gap and put Americans back to work, Republicans and Democrats came together last Congress to fix a broken and outdated job training system. The bipartisan, bicameral effort resulted in what we call the Workforce Innovation and Opportunity Act, a commonsense solution to modernize and improve the Federal workforce development system. The Workforce Innovation and Opportunity Act will help workers obtain skills for 21st century jobs and cultivate a modern workforce that evolving American businesses truly need.    But we still have more work to do. By reauthorizing the Carl D. Perkins Career and Technical Education Act, we have an opportunity to help even more Americans, especially younger Americans, to enter the workforce with the tools and knowledge necessary to compete in the high-skilled, in-demand jobs of our economy--in short, to compete in a 21st century world and win. Last reauthorized in 2006, the law provides Federal support for State and local programs focused on preparing high school and community college students for technical careers.    Now, unfortunately, many of these career and technical education programs have not kept pace with the changing workforce. In a report released by the Counsel for Chief State School Officers, education leaders explained that, quote, ``Career education in too many of our secondary schools reflects an outdated model that tolerates low expectations and is often misaligned with the evolving needs of the current labor market.''    With more than 14 percent of young adults unemployed and the highest level of unfilled jobs since 2001, it's no wonder States have started to take action. My home State of Indiana, for example, is partnering with local businesses to develop a new high school curriculum that better meets the needs of local communities and ensures that students are prepared to enter high-skilled jobs right after earning their diploma.    As Governor Mike Pence testified at a hearing here earlier this year, quote, ``For those students who are not bound for the traditional 4-year college, we must still ensure that they can thrive in future careers. And one way to do this is to again make career and technical education a priority,'' unquote.    By working with the private sector to develop resources for successful career and technical education programs, Indiana has made incredible gains over the last 2 years. The State has helped thousands of hard-working Hoosiers join the workforce and attracted more good-paying jobs for people in our communities. It's our hope that the success we've experienced in Indiana not only continues for our State, but is replicated across the country.    The goal at the Federal level and what we are here to discuss today is how to ensure investment in these State and local efforts is paying off for students that we all aim to serve. To help reach that goal, we should consider reforms that encourage States to align high school and postsecondary course work with the needs of the workforce. This will require a look at existing Federal requirements, many of which, in my opinion, are duplicative and can hinder State and local efforts to development and implement their own successful programs.    Helping Americans compete and succeed in today's workforce remains one of the committee's leading priorities, and today's discussion is an important part of that effort. I look forward to hearing from our panel of witnesses as we work to improve the Perkins Act and strengthen support for young Americans as they enter the workforce.    And before I recognize my friend Ranking Member Fudge, I would like to note that one of our witnesses today, Dr. Douglas Major, is a resident of Stillwater, Oklahoma. On Saturday, the people of Stillwater and the surrounding communities were celebrating Oklahoma State University's homecoming when a driver crashed into the homecoming parade. This terrible tragedy injured more than 40 individuals and killed four others.    Dr. Major, or behalf of this committee, I want to extend my deepest sympathies to you, the people of Stillwater, and the entire Oklahoma State University community. We pray for the recovery of those who remain hospitalized and in critical condition, and we lift up our thoughts and prayers to the victims and their families.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Major</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Major. Yes, sir. Thank you.</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman.    Thank you all for being here today.    Today we are going to examine the critical role of career and technical education programs that prepare our Nation's students for success in college and career. Many of these programs are funded through the Carl D. Perkins Career and Technical Education Improvement Act of 2006.    According to the Georgetown University Center on Education and the Workforce, in the next 5 years 65 percent of all jobs in the United States will require training beyond high school. In my home State of Ohio career and technical education is available at every public high school. Other States should follow Ohio's lead so career and technical education is available at every high school across this Nation.    The importance of CTE cannot be overstated. Its programs equip our Nation's students with the skills they need to succeed and in a rapidly evolving 21st century economy.    Unfortunately, after harmful sequestration cuts, public funding for CTE is at historic lows. It is clear that we should not continue to cut funding for critical programs like CTE that engage students with an integrated curriculum of core academic content and real world, work-based relevance. Instead, we must support high-quality CTE programs.    Currently, our Nation faces an unprecedented skills gap, and CTE programs are integral to closing that gap. We must do everything we can to maintain and strengthen these programs.    For many years, the Perkins Act has supported the development of CTE programs that cultivate in-demand skills among secondary and postsecondary students. We must do more to spur innovation with the delivery of CTE to reward and replicate programs achieving positive outcomes for students and industry and to ensure CTE is positioned to drive economic success through better workforce alignment and increased collaboration.    Reauthorization of the Carl D. Perkins Career and Technical Education Act presents this committee with an opportunity to ensure that all students are equipped with the skills to succeed in a rapidly evolving 21st century economy.    I look forward to hearing from our distinguished panel of witnesses and working with the majority to reauthorize the act. Further, I have received, Mr. Chairman, a letter from our colleague, Mr. Langevin, and he would like to enter it into the record.</t>
   </si>
   <si>
@@ -85,6 +103,9 @@
     <t xml:space="preserve">    Chairman Rokita. Let the record reflect that the witnesses have answered all in the affirmative.    And you may be seated.    Before I recognize you to provide your testimony, let me briefly explain our lighting system. You each have 5 minutes to present your testimony. And just like the traffic lights, when 1 minute is left the light will turn yellow. I'm not sure a traffic light stays yellow for a minute, but you get the point.    I can say something about my spouse and traffic.    When your time has expired, the light will turn red. At that point, I'll ask you to wrap up your remarks as best you are able. Members will each have 5 minutes to ask questions of you then.    So we'll start with Dr. Huftalin. You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Huftalin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Huftalin. Good morning, Chairman Rokita, Ranking Member Fudge, and members of the committee. Thank you for the opportunity to appear today to discuss this important issue. My name is Deneece Huftalin, and I serve as the president of Salt Lake Community College, having served at the college in various leadership capacities for over 23 years.    Salt Lake Community College, as you heard, is an accredited, student-focused, comprehensive community college meeting the diversities of the Salt Lake Valley. Home to more than 60,000 students each year, Salt Lake Community College is the largest supplier of transfer students to Utah's 4-year institutions and a perennial top 10 college nationally for total associate's degrees awarded.    Twenty percent of our students identify as minority, 10 percent identify as having some disability, and last fall 64 percent of our incoming students were first generation. We are also proud to serve 642 veteran students and have consistently been named as a top college for veterans by Military Times.    The college is also Utah's leading provider of workforce development programs, with more than 28,000 students enrolled in CTE courses last year. With 211 certificate and degree programs, SLCC offers a breadth of workforce training opportunities for Salt Lake County residents.    Career and technical education programs are designed to prepare students to enter the workforce immediately upon completion. Students can enter our college in noncredit or credit-bearing CTE programs and can earn short-term certificates as well as associate degrees. Our CTE programs range from traditional vocational programs, like welding and building construction, to newer programs, such as biomanufacturing and digital animation.    The Carl D. Perkins Act is a vital source of financial support for Salt Lake Community College and for all community colleges. Over the last several years, as the recession weakened State investment toward higher education, Perkins funding was crucial to our ability to maintain and grow key CTE programs for our students at a time when our enrollment was rapidly increasing.    For the 2016 fiscal year, Salt Lake Community College received approximately $1.25 million in Perkins funds. The college uses those funds to improve CTE offerings throughout the institution.    Acquiring modern equipment is imperative for state-of-the-art CTE programs. These programs are costly to maintain and often require significant financial investment to ensure we have the latest technologies and equipment to train our students to enter today's ever-advancing and technical workplace.    The college has used Perkins funds to purchase a wide range of items, such as dental hygiene x-ray view boxes, materials fatigue testers, and CNC machining equipment, all items we would be unable to purchase without the Perkins funding. In addition, Perkins funding has allowed us to ramp up our training in aviation maintenance avionics to meet industry demand and to maintain high-quality training in automotive diesel training and building construction, all critical industries which contribute to a healthy economy.    While Perkins funding primarily supports advanced equipment needs, Perkins dollars also strengthen the essential student support services many of our students need to be successful. As we strive to increase our completion rates, Perkins funding is essential to enhance advising and disability resource center services.    As I close my remarks, I'd like to share two brief examples of how we are using Perkins funding to meet the needs of both our employers and our students.    A few months ago, the Boeing Company of Salt Lake, on behalf of several major aerospace manufacturing companies, approached the State and its educational partners about working collectively to provide more trained workers for the State's rapidly growing aerospace industry. Within a short timeframe, we created the Utah Aerospace Pathways Program. Under this pilot program, high school students enroll in a specialized set of courses in aerospace manufacturing.    The students take one semester in high school, followed by a second semester at Salt Lake Community College or the Davis Applied Technology College. They then participate in a 48-hour paid internship with local aerospace partners, and upon successful completion of their coursework and internship will graduate with a certificate in aerospace manufacturing. The certificate allows students to begin a career immediately in the aerospace industry at a livable wage.    The training provided through this program will center on machining, fabrication, and composite skills, all CTE fields that are increasingly in demand in aerospace and other advanced manufacturing industries. We are proud to be part of this collaborative effort which demonstrates best practices in CTE using local industry data to establish relevant, strong career programs between secondary, higher, and industry leaders.    My second example of CTE at work relates to one of our recent graduates. As a single mother of two and a 14-year veteran of the United States Army, Darlene needed a career change. Working as a concrete contractor, she knew it would be a matter of time until the physical strain took its toll.    Darlene enrolled in our Non-Destructive Testing program with hopes of coupling her critical thinking and analytical skills with her strong work ethic. Darlene completed in 2 years and received multiple employment offers promising exceptional benefits.    Career and technical education has always been and will be the very core of our mission at Salt Lake Community College. The Perkins program is critical to our ability to provide these in-demand programs for industry and for thousands of students like Darlene.    We appreciate your past support of the Perkins program and encourage your current support as this worthwhile program is considered for reauthorization. I would be happy to address any questions from the committee.</t>
   </si>
   <si>
@@ -97,18 +118,27 @@
     <t xml:space="preserve">    Chairman Rokita. Thank you, Doctor.    Dr. Ricks, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Ricks</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ricks. Good morning, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee. Thank you for the opportunity to submit testimony to the Committee on Education and the Workforce and to share my perspective on improving career and technical education to help students succeed in the workforce. Specifically, I will discuss the role of the importance of technical education in the development of career pathways in nontraditional fields for underrepresented groups.    For more than 25 years I have served as an educator, advocate, and social science researcher. I currently serve as the director of Diversity in Life Sciences for Keystone Symposia on Molecular and Cellular Biology in Silverthorne, Colorado. My responsibility is to manage programs to serve underrepresented, or what we call UR students, postdoctoral Fellows, and early career scientists, including our flagship Fellows programs for UR assistant professors and research scientists. Many of the UR researchers who participate in our meetings and professional development programs come from public and private universities in States represented by members of this committee, including but not limited to institutions such as Emory, Stanford, the University of Pennsylvania, the University of Virginia, the University of Wisconsin, Madison, and Michigan State University.    I am also a member of the Board of Directors of the Augustus F. Hawkins Foundation, a public education and workforce foundation founded by and subsequently named after the former chairman of this distinguished committee.    In the past, career and technical education, or CTE, was associated with vocational education as a training platform for low-income and immigrant populations who had little access to more highly paid jobs that require formal postsecondary education. And in the past, CTE teachers were fairly low-salary workers. But according to 2012 Bureau of Labor Statistics, the median salary for CTE teachers was $51,910, placing those teachers squarely into the American middle class.    A 2014 U.S. Census report cited statistics that non-Hispanic Asians were most likely to hold a bachelor's degree or higher, followed by non-Hispanic whites. While 31 percent of Asians hold a bachelor's degree as their highest level of attainment and 18 percent hold an advanced degree, 20 percent of non-Hispanic whites hold a bachelor's degree and 12 percent an advanced degree.    However, Blacks and Hispanics of any race were most concentrated at lower levels of educational attainment. Only 39 percent of Blacks and Hispanics reported high school completion as their highest level of traditional educational attainment, and 13 percent of blacks and 28 percent of Hispanics or Latinos did not complete high school at all.    When you total this, nearly 41 percent of minorities, African Americans and Latinos, don't complete high school. These are shocking numbers for any Nation, but for the most industrialized Nation in the world, an inability to ensure secondary educational completion signals a critical failure in the system. If students are unable to master basic skill sets--that's reading, writing, computation, and critical thinking--it is far more difficult for them to secure and sustain gainful employment.    However, one of the advantages of CTE is its emphasis on technical training and soft skills development, such as interviewing techniques, job persistence, and interpersonal communication. Short-term education is a possible way to lift groups, including Latinos and African Americans with low levels of educational attainment, into better economic standing. Recent economic challenges have pushed many Americans towards short-term education options and this short-term education may pay off. CTE programs and the credentials that they offer provide access to higher wages, higher-demand jobs, particularly in emerging industry sectors. Almost 30 percent of people with less than an associate's degree, including licenses and certificates, earn more than many of the average bachelor degree recipients.    It is a fact that many Americans do not attend college. However, as a birthright, every American expects to have a job that allows them to feed their families, have access to affordable health care, and live with dignity. Fortunately, although CTE was once stigmatized and relegated to the dungeons of education, it is now considered as a viable opportunity for both nontraditional and college-bound students. In fact, just this year, the United States Presidential Scholars Program established a new category of outstanding scholars in CTE.    The resurgence of apprenticeship programs is a welcome addition to the CTE portfolio, and I am pleased that legislation such as the Apprenticeship and Jobs Training Act of 2015 are gaining currency. I thank the members of the committee for the opportunity to share a realistic perspective of how CTE can serve as a transformative toolkit for the education and workforce development of U.S. current and future labor markets. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Doctor.    Mr. Johnson, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Good morning, Mr. Chairman, Ranking Member Fudge, members of the subcommittee. My name is Tim Johnson, and I serve as senior director of governmental relations for the NCCER. Thank you for letting us participate in this hearing this morning.    NCCER is a not-for-profit 501(c)(3) educational foundation created in 1996 as the National Center for Construction Education and Research. It was developed with the support of more than 125 construction CEOs and various associations, including the Associated Builders &amp; Contractors and the Associated General Contractors, and academic leaders, who united to revolutionize training for the construction industry.    Sharing the common goal of developing a safe and productive workforce, these companies and their organizations created a standardized training and credentialing program for the commercial and industrial construction industries. This progressive program has evolved into curriculum in more than 70 craft areas and a complete series of more than 70 assessments offered by 700 NCCER accredited sponsors in more than 5,000 training locations across the United States. The NCCER programs and processes annually engage more than a half a million--500,000--individuals.    Our Board of Trustees is a who's who of industry: ExxonMobile, Shell, DuPont, Bechtel, Fluor, Jacobs, Turner Industries, Performance Contractors, ISC Constructors. We also have board members from organizations--great organizations--like Skills USA and the Association for Career and Technical Education.    NCCER develops standardized construction and maintenance curricula and assessments with portable credentials. These credentials are tracked through our registry and allow organizations and companies to confirm the qualifications of their craft professionals and/or check the qualifications of possible new hires. NCCER's registry also assists craft professionals by maintaining their records in a secure database.    Our workforce development process of accreditation, instructor certification, standardized curriculum, registry, and assessment certification is a key component in the construction industry's workforce development efforts. NCCER also drives multiple initiatives to enhance career development and recruitment efforts for the industry, primarily through our Build Your Future campaign.    NCCER is headquartered in Alachua, Florida, and is affiliated with the University of Florida's M.E. Rinker School of Construction Management. And I will tell you, as a proud LSU Tiger, that's sometimes difficult for me to say.    The NCCER is a believer in and supporter of career and technical education. We believe that CTE is being transformed across the United States and great pockets of excellence have been created. Our challenge is to take these pockets of excellence and turn them into standard practices based on regional and specific needs.    We must place additional focus on what I call the Four P's of CTE: Public policy and public perception. The focus of my remarks today will be the critically important link between industry-specific needs and the education and training that CTE programs provide.    All of the NCCER programs and processes are driven directly by our industry partners. Our 70-plus craft curriculum titles are developed and regularly updated by construction industry subject matter experts. For example, our process identifies and brings together some of the premier electricians in the United States to originally develop and constantly update our electrical programs. We must ensure that what is being taught includes the very latest technology and practices in all of our programs. The NCCER does just that.    We are working in other ways to more closely link industry and education. We have developed the Construction Career Pathways initiative to provide guidance, best practices, and practical tools that can be used by industry and education to connect. This initiative has created an online connection map that allows industry representatives and educators to connect locally. By providing a fillable form to list contact information and needs, local teachers can find contractors in their area that are willing to help with their programs through presentations, curriculum guidance, and/or career events.    We also know that successful CTE programs must identify and employ skilled and capable instructors. I had the great pleasure of managing a large, privately funded craft training program for a number of years and I learned very quickly that instructors are the lifeblood of any training program. I say often that it is easier to turn a pipe fitter into a teacher than it is to turn a teacher into a pipe fitter. That means no disrespect for professional educators. I come from a family of them.    The key to CTE is to find skilled professionals who have some communication skills and provide them with the instructional training and resources they need. The NCCER does this through our Instructor Certification Training Program and our Master Training Program, and these programs ensure that individuals who instruct in our accredited programs have the craft and teaching skills to bring learning to life for their students.    In my home State of Louisiana, where more than $80 billion of industrial development expansion has been announced, the NCCER is helping to drive great collaboration between industry, the contractors who build and maintain their facilities, educational providers, State government agencies. The Louisiana Department of Education, K through 12, and the Louisiana Community and Technical College System are both accredited by the NCCER to provide our programs and processes.    The NCCER has developed into one of the premier workforce development organizations in the United States, and that success can be directly linked to the fact that we are and have been from our inception specifically driven by industry needs.    We look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Mr. Johnson. I appreciate that.    Let me start the subcommittee's questioning session by recognizing the chairman of the full Committee of Education and the Workforce, the gentleman from Minnesota, Mr. John Kline.</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Mr. Chairman, for the courtesy and for the hearing.    I thank the panel of witnesses. You're a terrific, terrific panel of witnesses.    We have been grappling with how do we organize Federal efforts and how do we spend Federal money to good end, and what we've heard for a long time was that industry just couldn't find people with the skills that they needed, they just couldn't find them, and schools were providing skills that weren't needed. And so we went through quite a process here of looking at WIA, the Workforce Act, and we came up with WIOA. I don't know how we actually came up with that name, but we've got a new system.    So, again, all of this was designed, if we're going to put taxpayer money into this, and if we're going to do something to help people who need jobs and to help industries who need workers, it ought to work, it ought to come together and not be working across purposes.    So, Dr. Huftalin, you talked about partnering with local employers, and I think we're seeing evidence of that around the country. What kind of relationship do you have with these workforce development boards? Do you have partners there? Are you part of it? How is that working under the new rules?</t>
   </si>
   <si>
@@ -139,6 +169,9 @@
     <t xml:space="preserve">    Chairman Rokita. I thank the gentleman.    Ranking Member Scott, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. I appreciate the opportunity.    And I want to thank our witnesses.    I want to follow up with one of the questions the chairman mentioned. Ms. Huftalin, in working with the various agencies, how do you make sure that you're training the right number of people, not too many and not too few?</t>
   </si>
   <si>
@@ -169,6 +202,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Chairman, thank you. Thank you for this hearing. Career and technical education is obviously something I'm very passionate about, and I happen to believe that of the domestic issues that this Nation is facing economically, a robust investment in career and technical education training is a solution to many of those problems.    Thanks to the members of the panel for your experience, your passion, and your leadership. On behalf of the Career and Technical Education Caucus, which I co-chair with my good friend, Jim Langevin, who submitted something for the record already, despite some difficult economic times around here, we've actually--and I think it is an acknowledgement of the importance of career and technical education--we've actually gotten a plus-up. You know, not much, $52 million, it's kind of minimal in the scale of a $1.3 billion program, but any kind of a plus-up is a sign of recognition of importance, I think.    Dr. Major, we all know it's important to ensure that parents and students are receiving the necessary information about the vast opportunities that career and technical education can provide. In your testimony, your written and your verbal testimony, you talked about more flexibility, the use of Perkins money earlier in education to pursue career exploration. Can you put a little more meat on the bone of that, just a couple of examples of what and when do you think would be effective?</t>
   </si>
   <si>
@@ -235,6 +274,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    And thank all of you for being here. This is very informative, and I appreciate it very much.    Dr. Huftalin, there's a technical college in my district, Coastal Pines Technical College. It operates a program that's called Move on When Ready. It allows students, high school students, to actually take classes at the technical college to get credit for the classes for a college degree as well as for their high school degree. It comes at no cost, not even the books are charged for. And it's very well attended, very well participated in. Is this the type of program that you see implemented anywhere else?</t>
   </si>
   <si>
@@ -283,6 +328,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    And thank you to the witness. This is such an important conversation. As, we know that the CTE courses can help prepare students to succeed in careers, but also on college campuses, as we've discussed, and help them be prepared.    But that isn't all. The students also learn the soft skills as well as the hard skills, and I know Dr. Ricks mentioned this, like teamwork and the ability to communicate. And that serves them throughout their lives, regardless of where they end up in a career.    The good-quality CTE classes accomplish this while also preparing students to do well academically in postsecondary education as well as the workforce. And I really want to emphasize, because we've been talking a lot about how we message this and what's happened in our conversations, the ``E'' part of CTE stands for education. So we're not trying to convert education into job training. This is about educating students to be prepared for whichever path that they take.    And I want to mention, we're talking about success stories, I have several from the district I represent. Sherwood High School in Sherwood, Oregon, they have an all-girls welding class, fills up every year. They also have a program where the students build a house. They take architecture classes, interior design, environmental science and construction, and then they build and sell the house. It's a great experience. And they have a mobile fab lab where the teacher has an RV and he drives around, not just to other schools, but to other districts to help inform their teachers about what they can do.    But the tremendous benefit, and I've seen and talked with the students who participate in these classes, that they get inherent benefit from making something tangible. And those lessons are really important. Newberg High School in my district has a whole range, from culinary classes to CAD labs. And when I was out there, they really emphasized the importance of the Perkins funding. Yamhill Carlton High School, which is down in wine country, not only do they have a manufacturing class with a local polymer manufacturer, they have also started a viticulture class at their high school.    And then there are courses that continue at the community college. Portland Community College has one of the Nation's top job training programs as recognized by the White House, where they use an innovative approach to help unemployed workers complete short-term stackable credits that give them skills.    So those are just a few of the examples.    And Dr. Ricks, I mentioned the all-girls welding class at Sherwood High School and their homebuilding class. Now, that district has about 5,000 students. This beautiful pen you might have noticed because we're in a small room today, that wood pen was made by a student at Gaston. They have 564 students total in their entire school district. When their teacher gave me this pen, he talked about what this means to the students to actually make things and how engaged they are. Warrenton High School, over on the Oregon coast, has only 285 students, but they run a fish hatchery at their school and have an aquaculture program.    So, Dr. Ricks, how do you bring high quality academic programs, especially to rural and underrepresented communities? And I share your concern about--and Dr. Major and all of you on the panel--about what a shift to competitive funding would mean. But how do you really bring those programs around the country to rural and underrepresented students as well as in large urban districts?</t>
   </si>
   <si>
@@ -310,6 +361,9 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. Okay. First of all, I'd like to make a comment. I can tell you, I'm 60 years old, I think in my lifetime I have never felt that people look down on, or I think Congressman Scott used the word as tech schools as being a dumping ground. There may be some segments of society where they are bigoted or, you know, snobbish people look down on people who didn't go to a 4-year degree. I think among me and my peer group, when I was coming up we never had that idea. And I think it is unfortunate that we had people here today use those terms.    But a question for I guess any one of the four of you. One thing that I find in my area is that sometimes when I talk to people who run the local tech schools they talk about people with literally a college degree going back. I know Dr. Major talked about people being an average age 27. I'd like to you to comment as how often you do see people who have a full 4-year degree and eventually realize that they got something without a great deal of value and come back.</t>
   </si>
   <si>
@@ -346,6 +400,12 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman.    I want to talk about this idea of the people coming back at age 27. I just spoke to someone today who grew up in a household with a mother, a single-parent household. The mother was on food stamps. He worked as a box boy full time. Could have qualified for the Pell Grant, all these things early on, but worked his way up to management in this food supermarket area. Hard-working person, working full time, had a kid. Decided that he couldn't stay up all night dispatching the trucks in the morning, sleeping all day, and being a good dad. So he wanted to back and get his education. So he never used the Pell Grants, worked his way up. You know, did all the things. I mean, he was impelled.    I'm wondering how many of those kind of folks do we have coming--you know, they don't even have their first bachelor's, but they're going to come back and try to earn their first degree. But for him to leave the workforce, really, we know that going to school full time is probably a good idea for many people in order to complete their programs.    I mean, how big a segment of the society is this, and do we need to do something about it?</t>
   </si>
   <si>
@@ -382,6 +442,12 @@
     <t>412605</t>
   </si>
   <si>
+    <t>Brat</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, Chairman.    Thank you all for what you do. I just met with all my career and technical folks a couple weeks back. I've been working in this Virginia State Senate with some of the leaders there for 7 or 8 years. I was a college professor for 20 years. Went to seminary before that. I don't know what went wrong. So I've been in education my whole life.    Congresswoman Bonamici says, ``I know what you're going to ask every time,'' because I ask the same question every time one way or the other. But my challenge to you, you're all doing the Lord's work, et cetera, but there's a problem in K to 12, and people have been asking, the parents, and there's all this inside baseball up here, all these terms, and, you know, like we're going to fix this through policy. And so we're spending $13,000 a year per kid for 13 years and they don't know what business is when they get out. It's unbelievable.    So you guys are saying let's find some skills for them. Well, I don't blame you, right? So if you're coming out and you don't know what a business is and you don't know about free markets and economics or any of that, then you're doing the next best step. Let's get these kids some skills and fit them into empty sectors where there's some jobs, right? So I get that.    I'll just go through all for you real quick. Just how can we start to teach kids about free markets and get them excited about business? They're going to spend every waking hour of their life in business. And yet sometimes we tell them business is bad, right? So the rest of your life, all your waking hours, is going to be spent doing something morally bad, right? It's no wonder the kids look at you and go, ``I don't get it.''    My Governor in Virginia is on the other side of the aisle. He's going around the world doing great stuff. He's getting jobs from China and India and all this kind of stuff. And yet we don't work together to convey that energy to the kids. This is the way it works up here in the big leagues, right? All the business people know what you have got to do to make money and be successful. But we don't give those secrets to the kids.    And I'll just put on my econ hat, did economics for years. The industrial revolution skills, they've been with us forever. They didn't cause modern economic growth, I want to be clear on that. And you can go look at a bipartisan author, favorite of mine, Deirdre McCloskey. She's got a six-volume set out, she's a Nobel-caliber economist, and I'd recommend that to all of you, on why markets matter more than all these other subsets, right, education, skills. We have to do all of the above, but if you don't have working markets for kids to plug those skills in, if you go to a top-down communist society, you got skills, you're not going to get growth and kids won't end up rich.    What can we do to pump up and motivate the K to 12 system so that the kids are more prepared for the skills when they get to you? And I'm not leaving you enough, but if you can just all weigh in as you see fit.</t>
   </si>
   <si>
@@ -409,6 +475,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman.    And thank you to all the panelists who are with us today for this really interesting and important discussion.    I had a question maybe for you, Mr. Johnson. You were talking about students coming back who maybe had the BA and you're quickly allowing them to get that associate's degree. How do you find the balance between helping business fill that short-term talent pipeline and the longer best educational goals for our students, maybe sort of the reverse of what you were describing? How do we find that balance?</t>
   </si>
   <si>
@@ -433,6 +505,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chair.    And thank you to those of you who are here today to testify. Very interesting.    I'm from the great State of Michigan where we are known for our skilled workers. And over the years we've kind of moved away from that in Michigan and we're trying to do whatever we can to ramp up our vocational environments again.    And I'm wondering, I was just noticing, Dr. Huftalin, the Utah Aerospace Pathways Program is a fascinating example of partnership between local educators and industries. And I'm wondering if you can share with us how that internship program enhances the students' experience.    And also in that same regard, what advice can you give to other learning environments, vocational learning environments, to continue updating their processes and continuing to align with changing needs to ensure they are properly preparing their students for the jobs that are available today?    I ask that question because as I work my way through my district, I note that there is an emphasis on vocational training, but I'm not sure that it's just there to say it's there rather than being dynamic and moving with the economy. We have 96,000 unfilled jobs in Michigan, manufacturing jobs primarily, and it's very important for Michigan, and we're really trying to get this right.</t>
   </si>
   <si>
@@ -452,6 +530,12 @@
   </si>
   <si>
     <t>400097</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you. Thank you, Mr. Chairman.    Appreciate you all being here.    One of things that you talked about just a few minutes ago was sort of that back and forth with industry and the ability of instructors, teachers to really get a sense of what's going on in the real world and be able to translate that for their students.    I wanted to ask you, though, about the curriculum for CTE teachers themselves. You were just talking a little about that. You have to know your--if you're teaching a craft, you sure as heck want to know how to do that. But are there some other attributes and ways of training for--I think, Dr. Johnson, you talked about citizenship ready skills.    What is it that perhaps within this range of classes is really required of the instructors themselves, the kind of role model that those individuals are? What have you seen that perhaps is different, you know, from an English teacher, from a history teacher?</t>
@@ -902,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +994,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,3797 +1016,4438 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
+        <v>86</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G69" t="s">
+        <v>86</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s">
+        <v>86</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G74" t="s">
+        <v>104</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G82" t="s">
+        <v>115</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G86" t="s">
+        <v>115</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G88" t="s">
+        <v>115</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G95" t="s">
+        <v>128</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
       <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>128</v>
+      </c>
       <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G104" t="s">
+        <v>142</v>
+      </c>
       <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G106" t="s">
+        <v>142</v>
+      </c>
       <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G110" t="s">
+        <v>142</v>
+      </c>
       <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G112" t="s">
+        <v>153</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G114" t="s">
+        <v>153</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="G116" t="s">
+        <v>153</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>34</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G119" t="s">
+        <v>163</v>
+      </c>
       <c r="H119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G121" t="s">
+        <v>163</v>
+      </c>
       <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G123" t="s">
+        <v>163</v>
+      </c>
       <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G125" t="s">
+        <v>172</v>
+      </c>
       <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>37</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G128" t="s">
+        <v>172</v>
+      </c>
       <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G130" t="s">
+        <v>172</v>
+      </c>
       <c r="H130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>34</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G152" t="s">
+        <v>62</v>
+      </c>
       <c r="H152" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>50</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G154" t="s">
+        <v>62</v>
+      </c>
       <c r="H154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>50</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G156" t="s">
+        <v>62</v>
+      </c>
       <c r="H156" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>21</v>
+      </c>
       <c r="H158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97211.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rokita</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Fudge</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
   </si>
   <si>
     <t>412317</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Thompson</t>
@@ -986,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1006,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,4435 +1031,4760 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="H82" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>32</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="H86" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="H88" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="H97" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>29</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>32</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G104" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="H104" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I104" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>17</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I106" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>32</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G112" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="H112" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I112" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G114" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="H114" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>32</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G116" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="H116" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="J116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>34</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G119" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="H119" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G121" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="H121" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I121" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>37</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>40</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G123" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="H123" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G125" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="H125" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I125" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s">
-        <v>37</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G128" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I128" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>29</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G130" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="H130" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>32</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>17</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
-        <v>17</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>32</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>32</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s">
-        <v>34</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>37</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>37</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>37</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>40</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G152" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H152" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I152" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J152" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>29</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>32</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G154" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H154" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I154" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J154" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G156" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H156" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I156" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J156" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H158" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I158" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J158" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>207</v>
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
